--- a/Data/aearep-1977/candidatepackages.xlsx
+++ b/Data/aearep-1977/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,24 +25,24 @@
     <t>estout</t>
   </si>
   <si>
+    <t>reghdfe</t>
+  </si>
+  <si>
     <t>filelist</t>
   </si>
   <si>
-    <t>reghdfe</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
+    <t>binscatter</t>
+  </si>
+  <si>
     <t>center</t>
   </si>
   <si>
-    <t>binscatter</t>
-  </si>
-  <si>
     <t>carryforward</t>
   </si>
   <si>
@@ -55,115 +55,106 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>lambda</t>
   </si>
   <si>
     <t>seq</t>
   </si>
   <si>
-    <t>lambda</t>
+    <t>dups</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>mpi</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>project</t>
   </si>
   <si>
     <t>emh</t>
   </si>
   <si>
-    <t>mpi</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>dups</t>
+    <t>cluster</t>
   </si>
   <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
+    <t>vam</t>
+  </si>
+  <si>
+    <t>levels</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>tablecol</t>
   </si>
   <si>
-    <t>levels</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>poverty</t>
-  </si>
-  <si>
     <t>geocode</t>
   </si>
   <si>
-    <t>vam</t>
+    <t>median</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>extreme</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
-    <t>effects</t>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>mc</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>csti</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>usd</t>
   </si>
   <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>csti</t>
-  </si>
-  <si>
-    <t>tr</t>
-  </si>
-  <si>
     <t>cal</t>
   </si>
   <si>
-    <t>usd</t>
+    <t>dash</t>
   </si>
   <si>
     <t>blist</t>
@@ -172,9 +163,6 @@
     <t>switch</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>hlist</t>
   </si>
   <si>
@@ -193,9 +181,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1977</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1977/130363/assessor/assessor/analysis</t>
   </si>
   <si>
@@ -214,18 +199,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1977/130363/student/student/project_programs/prepare</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1977/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>figure_6.do</t>
   </si>
   <si>
@@ -425,9 +401,6 @@
   </si>
   <si>
     <t>stuid_alocn_crosswalk.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -471,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D51"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -479,13 +452,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -493,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -517,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -529,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -541,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -553,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -565,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -577,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -589,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -601,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -613,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -625,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -637,10 +610,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D14"/>
     </row>
@@ -649,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="C15">
-        <v>0.12765252590179443</v>
+        <v>0.13586777448654175</v>
       </c>
       <c r="D15"/>
     </row>
@@ -661,10 +634,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>417</v>
+        <v>493</v>
       </c>
       <c r="C16">
-        <v>0.13826259970664978</v>
+        <v>0.16297520697116852</v>
       </c>
       <c r="D16"/>
     </row>
@@ -673,10 +646,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C17">
-        <v>0.16578249633312225</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D17"/>
     </row>
@@ -685,10 +658,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="C18">
-        <v>0.16644562780857086</v>
+        <v>0.17289255559444427</v>
       </c>
       <c r="D18"/>
     </row>
@@ -697,10 +670,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="C19">
-        <v>0.16677719354629517</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D19"/>
     </row>
@@ -709,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C20">
-        <v>0.17805039882659912</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D20"/>
     </row>
@@ -721,10 +694,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="C21">
-        <v>0.18700265884399414</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D21"/>
     </row>
@@ -733,10 +706,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C22">
-        <v>0.18733422458171844</v>
+        <v>0.18545454740524292</v>
       </c>
       <c r="D22"/>
     </row>
@@ -745,10 +718,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C23">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D23"/>
     </row>
@@ -757,10 +730,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="C24">
-        <v>0.19694960117340088</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D24"/>
     </row>
@@ -769,10 +742,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C25">
-        <v>0.20092837512493134</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D25"/>
     </row>
@@ -781,10 +754,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="C26">
-        <v>0.21187002956867218</v>
+        <v>0.21752065420150757</v>
       </c>
       <c r="D26"/>
     </row>
@@ -793,10 +766,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="C27">
-        <v>0.23010610044002533</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D27"/>
     </row>
@@ -805,10 +778,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C28">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D28"/>
     </row>
@@ -817,10 +790,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>811</v>
+        <v>736</v>
       </c>
       <c r="C29">
-        <v>0.26889920234680176</v>
+        <v>0.24330578744411469</v>
       </c>
       <c r="D29"/>
     </row>
@@ -829,10 +802,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="C30">
-        <v>0.27088859677314758</v>
+        <v>0.27933883666992188</v>
       </c>
       <c r="D30"/>
     </row>
@@ -841,10 +814,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="C31">
-        <v>0.30736073851585388</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D31"/>
     </row>
@@ -853,10 +826,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C32">
-        <v>0.32659152150154114</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D32"/>
     </row>
@@ -865,10 +838,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1124</v>
+        <v>1169</v>
       </c>
       <c r="C33">
-        <v>0.37267905473709106</v>
+        <v>0.3864462673664093</v>
       </c>
       <c r="D33"/>
     </row>
@@ -877,10 +850,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1133</v>
+        <v>1306</v>
       </c>
       <c r="C34">
-        <v>0.37566313147544861</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D34"/>
     </row>
@@ -889,10 +862,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1260</v>
+        <v>1428</v>
       </c>
       <c r="C35">
-        <v>0.41777187585830688</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D35"/>
     </row>
@@ -901,10 +874,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1464</v>
+        <v>1497</v>
       </c>
       <c r="C36">
-        <v>0.485411137342453</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D36"/>
     </row>
@@ -913,10 +886,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1472</v>
+        <v>1561</v>
       </c>
       <c r="C37">
-        <v>0.48806366324424744</v>
+        <v>0.51603305339813232</v>
       </c>
       <c r="D37"/>
     </row>
@@ -925,10 +898,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1553</v>
+        <v>1564</v>
       </c>
       <c r="C38">
-        <v>0.51492041349411011</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D38"/>
     </row>
@@ -937,10 +910,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1565</v>
+        <v>1658</v>
       </c>
       <c r="C39">
-        <v>0.51889920234680176</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D39"/>
     </row>
@@ -949,10 +922,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1660</v>
+        <v>1724</v>
       </c>
       <c r="C40">
-        <v>0.55039787292480469</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D40"/>
     </row>
@@ -961,10 +934,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1755</v>
+        <v>1767</v>
       </c>
       <c r="C41">
-        <v>0.58189654350280762</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D41"/>
     </row>
@@ -973,10 +946,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1798</v>
+        <v>1875</v>
       </c>
       <c r="C42">
-        <v>0.5961538553237915</v>
+        <v>0.61983472108840942</v>
       </c>
       <c r="D42"/>
     </row>
@@ -985,10 +958,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1817</v>
+        <v>1975</v>
       </c>
       <c r="C43">
-        <v>0.60245358943939209</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D43"/>
     </row>
@@ -997,10 +970,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1835</v>
+        <v>2008</v>
       </c>
       <c r="C44">
-        <v>0.60842174291610718</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D44"/>
     </row>
@@ -1009,10 +982,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1859</v>
+        <v>2030</v>
       </c>
       <c r="C45">
-        <v>0.61637932062149048</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D45"/>
     </row>
@@ -1021,10 +994,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1890</v>
+        <v>2259</v>
       </c>
       <c r="C46">
-        <v>0.62665784358978271</v>
+        <v>0.74677687883377075</v>
       </c>
       <c r="D46"/>
     </row>
@@ -1033,10 +1006,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1937</v>
+        <v>2436</v>
       </c>
       <c r="C47">
-        <v>0.64224135875701904</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D47"/>
     </row>
@@ -1045,10 +1018,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1951</v>
+        <v>2616</v>
       </c>
       <c r="C48">
-        <v>0.64688330888748169</v>
+        <v>0.86479336023330688</v>
       </c>
       <c r="D48"/>
     </row>
@@ -1057,10 +1030,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1963</v>
+        <v>2806</v>
       </c>
       <c r="C49">
-        <v>0.65086209774017334</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D49"/>
     </row>
@@ -1069,10 +1042,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2217</v>
+        <v>2819</v>
       </c>
       <c r="C50">
-        <v>0.73507958650588989</v>
+        <v>0.93190079927444458</v>
       </c>
       <c r="D50"/>
     </row>
@@ -1081,60 +1054,12 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2343</v>
+        <v>2936</v>
       </c>
       <c r="C51">
-        <v>0.77685678005218506</v>
+        <v>0.97057849168777466</v>
       </c>
       <c r="D51"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>2367</v>
-      </c>
-      <c r="C52">
-        <v>0.78481429815292358</v>
-      </c>
-      <c r="D52"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>2424</v>
-      </c>
-      <c r="C53">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>2795</v>
-      </c>
-      <c r="C54">
-        <v>0.9267241358757019</v>
-      </c>
-      <c r="D54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>2928</v>
-      </c>
-      <c r="C55">
-        <v>0.97082227468490601</v>
-      </c>
-      <c r="D55"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1142,575 +1067,551 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
